--- a/Centrales (Sin oferta inicial).xlsx
+++ b/Centrales (Sin oferta inicial).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGA\Desktop\INFORMACIÓN PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGA\Documents\GitHub\Proyecto-Introduccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="163">
   <si>
     <t>MJEPIRAC</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>Nombre general (arbitrario)</t>
+  </si>
+  <si>
+    <t>404 (Se usará oferta inicial)</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -707,6 +710,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,10 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1147,16 +1155,16 @@
       <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -1210,10 +1218,10 @@
       <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1256,10 +1264,10 @@
       <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1282,10 +1290,10 @@
       <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1350,11 +1358,11 @@
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -1397,12 +1405,12 @@
       <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -1424,11 +1432,11 @@
       <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1449,14 +1457,14 @@
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1687,16 +1695,16 @@
       <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -1718,12 +1726,12 @@
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -1891,14 +1899,14 @@
       <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
@@ -1920,13 +1928,13 @@
       <c r="F34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -1942,24 +1950,24 @@
       <c r="D35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="4">
-        <v>404</v>
+      <c r="E35" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -1975,20 +1983,20 @@
       <c r="D36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="4">
-        <v>404</v>
+      <c r="E36" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -2039,12 +2047,12 @@
       <c r="G38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -2129,12 +2137,12 @@
       <c r="F42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -2282,19 +2290,19 @@
       <c r="H110" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K110" s="21" t="s">
+      <c r="K110" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="18" t="s">
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="20"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="22"/>
       <c r="U110" s="9"/>
       <c r="Y110" s="6" t="s">
         <v>99</v>
@@ -2311,12 +2319,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="O110:S110"/>
-    <mergeCell ref="K110:N110"/>
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:M25"/>
@@ -2328,6 +2330,12 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="O110:S110"/>
+    <mergeCell ref="K110:N110"/>
     <mergeCell ref="H42:K42"/>
   </mergeCells>
   <hyperlinks>
